--- a/Data_file/import_invoice_AR_ARX.xlsx
+++ b/Data_file/import_invoice_AR_ARX.xlsx
@@ -14019,8 +14019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2625"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2562" workbookViewId="0">
+      <selection activeCell="K2565" sqref="K2565"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
@@ -14227,7 +14227,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="6">
-        <v>-26394.46</v>
+        <v>-26394.4604</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="7"/>
@@ -14302,7 +14302,7 @@
         <v>7</v>
       </c>
       <c r="F11" s="6">
-        <v>-12856.69</v>
+        <v>-12856.692000000001</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="7"/>
@@ -14560,7 +14560,7 @@
         <v>7</v>
       </c>
       <c r="F21" s="6">
-        <v>-7164.04</v>
+        <v>-7164.0351999999993</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="7"/>
@@ -14585,7 +14585,7 @@
         <v>7</v>
       </c>
       <c r="F22" s="6">
-        <v>-3148.48</v>
+        <v>-3148.4749999999999</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="7"/>
@@ -14610,7 +14610,7 @@
         <v>7</v>
       </c>
       <c r="F23" s="6">
-        <v>-1087.6099999999999</v>
+        <v>-1087.6125</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="7"/>
@@ -14685,7 +14685,7 @@
         <v>7</v>
       </c>
       <c r="F26" s="6">
-        <v>-3503.82</v>
+        <v>-3503.8220000000001</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="7"/>
@@ -14885,7 +14885,7 @@
         <v>7</v>
       </c>
       <c r="F34" s="6">
-        <v>-2990</v>
+        <v>-2989.9992999999995</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="7"/>
@@ -14935,7 +14935,7 @@
         <v>7</v>
       </c>
       <c r="F36" s="6">
-        <v>-122.41</v>
+        <v>-122.41000000000031</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="7"/>
@@ -15135,7 +15135,7 @@
         <v>7</v>
       </c>
       <c r="F44" s="6">
-        <v>-6224.39</v>
+        <v>-6224.3899999999994</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="7"/>
@@ -15260,7 +15260,7 @@
         <v>7</v>
       </c>
       <c r="F49" s="6">
-        <v>-26145.58</v>
+        <v>-26145.579999999998</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="7"/>
@@ -15310,7 +15310,7 @@
         <v>7</v>
       </c>
       <c r="F51" s="6">
-        <v>-13072.79</v>
+        <v>-13072.789999999999</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="7"/>
@@ -15360,7 +15360,7 @@
         <v>7</v>
       </c>
       <c r="F53" s="6">
-        <v>-40926.559999999998</v>
+        <v>-40926.560000000005</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="7"/>
@@ -15485,7 +15485,7 @@
         <v>7</v>
       </c>
       <c r="F58" s="6">
-        <v>-2956.2</v>
+        <v>-2956.2000000000003</v>
       </c>
       <c r="G58" s="5"/>
       <c r="H58" s="7"/>
@@ -15612,7 +15612,7 @@
         <v>7</v>
       </c>
       <c r="F63" s="6">
-        <v>-577.20000000000005</v>
+        <v>-577.20080000000007</v>
       </c>
       <c r="G63" s="6"/>
       <c r="H63" s="7"/>
@@ -15766,7 +15766,7 @@
         <v>7</v>
       </c>
       <c r="F69" s="6">
-        <v>-16340.99</v>
+        <v>-16340.990000000002</v>
       </c>
       <c r="G69" s="5"/>
       <c r="H69" s="7"/>
@@ -15816,7 +15816,7 @@
         <v>7</v>
       </c>
       <c r="F71" s="6">
-        <v>-6536.39</v>
+        <v>-6536.3899999999994</v>
       </c>
       <c r="G71" s="5"/>
       <c r="H71" s="7"/>
@@ -15841,7 +15841,7 @@
         <v>7</v>
       </c>
       <c r="F72" s="6">
-        <v>-2956.2</v>
+        <v>-2956.2000000000003</v>
       </c>
       <c r="G72" s="5"/>
       <c r="H72" s="7"/>
@@ -15966,7 +15966,7 @@
         <v>7</v>
       </c>
       <c r="F77" s="6">
-        <v>-32705.38</v>
+        <v>-32705.379999999997</v>
       </c>
       <c r="G77" s="5"/>
       <c r="H77" s="7"/>
@@ -16041,7 +16041,7 @@
         <v>7</v>
       </c>
       <c r="F80" s="6">
-        <v>3034.2</v>
+        <v>3034.2000000000003</v>
       </c>
       <c r="G80" s="5" t="s">
         <v>11</v>
@@ -16168,7 +16168,7 @@
         <v>7</v>
       </c>
       <c r="F85" s="6">
-        <v>-2956.2</v>
+        <v>-2956.2000000000003</v>
       </c>
       <c r="G85" s="5"/>
       <c r="H85" s="7"/>
@@ -16193,7 +16193,7 @@
         <v>7</v>
       </c>
       <c r="F86" s="6">
-        <v>-2956.2</v>
+        <v>-2956.2000000000003</v>
       </c>
       <c r="G86" s="5"/>
       <c r="H86" s="7"/>
@@ -16218,7 +16218,7 @@
         <v>7</v>
       </c>
       <c r="F87" s="6">
-        <v>-2956.2</v>
+        <v>-2956.2000000000003</v>
       </c>
       <c r="G87" s="5"/>
       <c r="H87" s="7"/>
@@ -16293,7 +16293,7 @@
         <v>7</v>
       </c>
       <c r="F90" s="6">
-        <v>-6536.39</v>
+        <v>-6536.3899999999994</v>
       </c>
       <c r="G90" s="5"/>
       <c r="H90" s="7"/>
@@ -16449,7 +16449,7 @@
         <v>7</v>
       </c>
       <c r="F96" s="6">
-        <v>-16340.99</v>
+        <v>-16340.990000000002</v>
       </c>
       <c r="G96" s="5"/>
       <c r="H96" s="7"/>
@@ -16499,7 +16499,7 @@
         <v>7</v>
       </c>
       <c r="F98" s="6">
-        <v>-12448.79</v>
+        <v>-12448.786600000001</v>
       </c>
       <c r="G98" s="5"/>
       <c r="H98" s="7"/>
@@ -16699,7 +16699,7 @@
         <v>7</v>
       </c>
       <c r="F106" s="6">
-        <v>-2956.2</v>
+        <v>-2956.2000000000003</v>
       </c>
       <c r="G106" s="5"/>
       <c r="H106" s="7"/>
@@ -16724,7 +16724,7 @@
         <v>7</v>
       </c>
       <c r="F107" s="6">
-        <v>-13072.79</v>
+        <v>-13072.789999999999</v>
       </c>
       <c r="G107" s="5"/>
       <c r="H107" s="7"/>
@@ -16749,7 +16749,7 @@
         <v>7</v>
       </c>
       <c r="F108" s="6">
-        <v>-16340.99</v>
+        <v>-16340.990000000002</v>
       </c>
       <c r="G108" s="5"/>
       <c r="H108" s="7"/>
@@ -16799,7 +16799,7 @@
         <v>7</v>
       </c>
       <c r="F110" s="6">
-        <v>-18985.18</v>
+        <v>-18985.181199999999</v>
       </c>
       <c r="G110" s="5"/>
       <c r="H110" s="7"/>
@@ -16824,7 +16824,7 @@
         <v>7</v>
       </c>
       <c r="F111" s="6">
-        <v>-2956.2</v>
+        <v>-2956.2000000000003</v>
       </c>
       <c r="G111" s="5"/>
       <c r="H111" s="7"/>
@@ -16924,7 +16924,7 @@
         <v>7</v>
       </c>
       <c r="F115" s="6">
-        <v>-16340.99</v>
+        <v>-16340.990000000002</v>
       </c>
       <c r="G115" s="5"/>
       <c r="H115" s="7"/>
@@ -17149,7 +17149,7 @@
         <v>7</v>
       </c>
       <c r="F124" s="6">
-        <v>-16340.99</v>
+        <v>-16340.990000000002</v>
       </c>
       <c r="G124" s="5"/>
       <c r="H124" s="7"/>
@@ -17226,7 +17226,7 @@
         <v>7</v>
       </c>
       <c r="F127" s="6">
-        <v>-17496.009999999998</v>
+        <v>-17496.008699999998</v>
       </c>
       <c r="G127" s="5"/>
       <c r="H127" s="7"/>
@@ -17303,7 +17303,7 @@
         <v>7</v>
       </c>
       <c r="F130" s="6">
-        <v>-9458.2800000000007</v>
+        <v>-9458.2757000000001</v>
       </c>
       <c r="G130" s="5"/>
       <c r="H130" s="7"/>
@@ -17805,7 +17805,7 @@
         <v>7</v>
       </c>
       <c r="F150" s="6">
-        <v>-197.29</v>
+        <v>-197.29000000000087</v>
       </c>
       <c r="G150" s="5"/>
       <c r="H150" s="7"/>
@@ -18461,7 +18461,7 @@
         <v>7</v>
       </c>
       <c r="F176" s="6">
-        <v>-344.2</v>
+        <v>-344.19999999999982</v>
       </c>
       <c r="G176" s="5"/>
       <c r="H176" s="7"/>
@@ -19273,7 +19273,7 @@
         <v>7</v>
       </c>
       <c r="F208" s="6">
-        <v>32479.79</v>
+        <v>32479.789999999994</v>
       </c>
       <c r="G208" s="5"/>
       <c r="H208" s="7"/>
@@ -19504,7 +19504,7 @@
         <v>7</v>
       </c>
       <c r="F217" s="6">
-        <v>-342.4</v>
+        <v>-342.39999999999986</v>
       </c>
       <c r="G217" s="5" t="s">
         <v>4168</v>
@@ -19556,7 +19556,7 @@
         <v>7</v>
       </c>
       <c r="F219" s="6">
-        <v>16834.900000000001</v>
+        <v>16834.899999999994</v>
       </c>
       <c r="G219" s="5"/>
       <c r="H219" s="7"/>
@@ -19608,7 +19608,7 @@
         <v>7</v>
       </c>
       <c r="F221" s="6">
-        <v>1568.01</v>
+        <v>1568.010000000002</v>
       </c>
       <c r="G221" s="5" t="s">
         <v>86</v>
@@ -19789,7 +19789,7 @@
         <v>7</v>
       </c>
       <c r="F228" s="6">
-        <v>10960.31</v>
+        <v>10960.309999999998</v>
       </c>
       <c r="G228" s="5" t="s">
         <v>89</v>
@@ -19816,7 +19816,7 @@
         <v>7</v>
       </c>
       <c r="F229" s="6">
-        <v>1473.28</v>
+        <v>1473.2800000000002</v>
       </c>
       <c r="G229" s="5" t="s">
         <v>92</v>
@@ -19870,7 +19870,7 @@
         <v>7</v>
       </c>
       <c r="F231" s="6">
-        <v>-3467.07</v>
+        <v>-3467.0700000000006</v>
       </c>
       <c r="G231" s="5" t="s">
         <v>4172</v>
@@ -20354,7 +20354,7 @@
         <v>7</v>
       </c>
       <c r="F249" s="6">
-        <v>7761.6</v>
+        <v>7761.5999999999985</v>
       </c>
       <c r="G249" s="5" t="s">
         <v>96</v>
@@ -20556,7 +20556,7 @@
         <v>7</v>
       </c>
       <c r="F257" s="6">
-        <v>1962.14</v>
+        <v>1962.1350000000039</v>
       </c>
       <c r="G257" s="5" t="s">
         <v>98</v>
@@ -20583,7 +20583,7 @@
         <v>7</v>
       </c>
       <c r="F258" s="6">
-        <v>1905.35</v>
+        <v>1905.3499999999985</v>
       </c>
       <c r="G258" s="5" t="s">
         <v>100</v>
@@ -20635,7 +20635,7 @@
         <v>7</v>
       </c>
       <c r="F260" s="6">
-        <v>25812.28</v>
+        <v>25812.280000000006</v>
       </c>
       <c r="G260" s="5" t="s">
         <v>102</v>
@@ -20662,7 +20662,7 @@
         <v>7</v>
       </c>
       <c r="F261" s="6">
-        <v>-1723.34</v>
+        <v>-1723.3399999999997</v>
       </c>
       <c r="G261" s="5" t="s">
         <v>4189</v>
@@ -20689,7 +20689,7 @@
         <v>7</v>
       </c>
       <c r="F262" s="6">
-        <v>-3113.7</v>
+        <v>-3113.7000000000003</v>
       </c>
       <c r="G262" s="5" t="s">
         <v>4190</v>
@@ -20716,7 +20716,7 @@
         <v>7</v>
       </c>
       <c r="F263" s="6">
-        <v>7544.68</v>
+        <v>7544.6800000000076</v>
       </c>
       <c r="G263" s="5" t="s">
         <v>104</v>
@@ -20770,7 +20770,7 @@
         <v>7</v>
       </c>
       <c r="F265" s="6">
-        <v>52576.24</v>
+        <v>52576.240000000005</v>
       </c>
       <c r="G265" s="5" t="s">
         <v>108</v>
@@ -20824,7 +20824,7 @@
         <v>7</v>
       </c>
       <c r="F267" s="6">
-        <v>470</v>
+        <v>469.99999999999272</v>
       </c>
       <c r="G267" s="5" t="s">
         <v>112</v>
@@ -20851,7 +20851,7 @@
         <v>7</v>
       </c>
       <c r="F268" s="6">
-        <v>4471.21</v>
+        <v>4471.2099999999919</v>
       </c>
       <c r="G268" s="5" t="s">
         <v>114</v>
@@ -20930,7 +20930,7 @@
         <v>7</v>
       </c>
       <c r="F271" s="6">
-        <v>220.38</v>
+        <v>220.37999999999738</v>
       </c>
       <c r="G271" s="5" t="s">
         <v>118</v>
@@ -20957,7 +20957,7 @@
         <v>7</v>
       </c>
       <c r="F272" s="6">
-        <v>13881.36</v>
+        <v>13881.359999999997</v>
       </c>
       <c r="G272" s="5" t="s">
         <v>120</v>
@@ -20984,7 +20984,7 @@
         <v>7</v>
       </c>
       <c r="F273" s="6">
-        <v>425.21</v>
+        <v>425.20999999999913</v>
       </c>
       <c r="G273" s="5" t="s">
         <v>122</v>
@@ -21011,7 +21011,7 @@
         <v>7</v>
       </c>
       <c r="F274" s="6">
-        <v>2757.7</v>
+        <v>2757.6999999999971</v>
       </c>
       <c r="G274" s="5" t="s">
         <v>124</v>
@@ -21038,7 +21038,7 @@
         <v>7</v>
       </c>
       <c r="F275" s="6">
-        <v>30202.720000000001</v>
+        <v>30202.720000000008</v>
       </c>
       <c r="G275" s="5" t="s">
         <v>126</v>
@@ -21065,7 +21065,7 @@
         <v>7</v>
       </c>
       <c r="F276" s="6">
-        <v>455</v>
+        <v>454.99999999999636</v>
       </c>
       <c r="G276" s="5" t="s">
         <v>128</v>
@@ -21522,7 +21522,7 @@
         <v>7</v>
       </c>
       <c r="F293" s="6">
-        <v>16677.98</v>
+        <v>16677.980000000003</v>
       </c>
       <c r="G293" s="5" t="s">
         <v>141</v>
@@ -21549,7 +21549,7 @@
         <v>7</v>
       </c>
       <c r="F294" s="6">
-        <v>2456.48</v>
+        <v>2456.4800000000009</v>
       </c>
       <c r="G294" s="5" t="s">
         <v>143</v>
@@ -21846,7 +21846,7 @@
         <v>7</v>
       </c>
       <c r="F305" s="6">
-        <v>13872.88</v>
+        <v>13872.880000000001</v>
       </c>
       <c r="G305" s="5" t="s">
         <v>160</v>
@@ -22413,7 +22413,7 @@
         <v>7</v>
       </c>
       <c r="F326" s="6">
-        <v>5613.3</v>
+        <v>5613.2999999999993</v>
       </c>
       <c r="G326" s="5" t="s">
         <v>168</v>
@@ -22440,7 +22440,7 @@
         <v>7</v>
       </c>
       <c r="F327" s="6">
-        <v>6953.7</v>
+        <v>6953.7000000000007</v>
       </c>
       <c r="G327" s="5" t="s">
         <v>170</v>
@@ -22494,7 +22494,7 @@
         <v>7</v>
       </c>
       <c r="F329" s="6">
-        <v>797.7</v>
+        <v>797.70000000000073</v>
       </c>
       <c r="G329" s="5" t="s">
         <v>174</v>
@@ -22683,7 +22683,7 @@
         <v>7</v>
       </c>
       <c r="F336" s="6">
-        <v>416458.32</v>
+        <v>416458.32000000007</v>
       </c>
       <c r="G336" s="5" t="s">
         <v>189</v>
@@ -23925,7 +23925,7 @@
         <v>7</v>
       </c>
       <c r="F382" s="6">
-        <v>45732.83</v>
+        <v>45732.829999999994</v>
       </c>
       <c r="G382" s="6" t="s">
         <v>250</v>
@@ -24006,7 +24006,7 @@
         <v>7</v>
       </c>
       <c r="F385" s="6">
-        <v>6597.07</v>
+        <v>6597.0700000000033</v>
       </c>
       <c r="G385" s="5" t="s">
         <v>255</v>
@@ -25344,7 +25344,7 @@
         <v>7</v>
       </c>
       <c r="F435" s="6">
-        <v>434.72</v>
+        <v>434.72000000000025</v>
       </c>
       <c r="G435" s="5" t="s">
         <v>333</v>
